--- a/Excel/ProductTile.xlsx
+++ b/Excel/ProductTile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rothm/Desktop/co-web-testing-co-web-testing/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rothm/Desktop/PP_Automated_Tests/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC79731-23CB-4944-BFA8-3275B6852713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594CA951-FC53-8C42-ACC3-C773FE70A716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{AF7577BA-19A1-3143-8A61-7772F5374412}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
